--- a/data-raw/valor/xlsx/mais_antigos.xlsx
+++ b/data-raw/valor/xlsx/mais_antigos.xlsx
@@ -355,13 +355,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="2" max="2" width="20.7109375" style="2" customWidth="1"/>
+    <col min="3" max="3" width="20.7109375" style="2" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1">
@@ -377,6 +378,11 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
+          <t>dt_classificado</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
           <t>tempo</t>
         </is>
       </c>
@@ -384,14 +390,17 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>00001968420108260077</t>
+          <t>00070131320108260483</t>
         </is>
       </c>
       <c r="B2" s="2">
-        <v>40189</v>
-      </c>
-      <c r="C2">
-        <v>5187</v>
+        <v>40191</v>
+      </c>
+      <c r="C2" s="2">
+        <v>44517</v>
+      </c>
+      <c r="D2">
+        <v>4326</v>
       </c>
     </row>
     <row r="3">
@@ -403,112 +412,139 @@
       <c r="B3" s="2">
         <v>40190</v>
       </c>
-      <c r="C3">
-        <v>5186</v>
+      <c r="C3" s="2">
+        <v>44504</v>
+      </c>
+      <c r="D3">
+        <v>4314</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>00070131320108260483</t>
+          <t>00051076620108260554</t>
         </is>
       </c>
       <c r="B4" s="2">
-        <v>40191</v>
-      </c>
-      <c r="C4">
-        <v>5185</v>
+        <v>40226</v>
+      </c>
+      <c r="C4" s="2">
+        <v>44495</v>
+      </c>
+      <c r="D4">
+        <v>4269</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>00002745520108260699</t>
+          <t>00030377220108260038</t>
         </is>
       </c>
       <c r="B5" s="2">
-        <v>40221</v>
-      </c>
-      <c r="C5">
-        <v>5155</v>
+        <v>40267</v>
+      </c>
+      <c r="C5" s="2">
+        <v>44509</v>
+      </c>
+      <c r="D5">
+        <v>4242</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>00051076620108260554</t>
+          <t>00027824920108260286</t>
         </is>
       </c>
       <c r="B6" s="2">
-        <v>40226</v>
-      </c>
-      <c r="C6">
-        <v>5150</v>
+        <v>40256</v>
+      </c>
+      <c r="C6" s="2">
+        <v>44495</v>
+      </c>
+      <c r="D6">
+        <v>4239</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>00010682220108260038</t>
+          <t>00152792020108260602</t>
         </is>
       </c>
       <c r="B7" s="2">
-        <v>40227</v>
-      </c>
-      <c r="C7">
-        <v>5149</v>
+        <v>40281</v>
+      </c>
+      <c r="C7" s="2">
+        <v>44517</v>
+      </c>
+      <c r="D7">
+        <v>4236</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>00060473120108260554</t>
+          <t>00014613420108260106</t>
         </is>
       </c>
       <c r="B8" s="2">
-        <v>40232</v>
-      </c>
-      <c r="C8">
-        <v>5144</v>
+        <v>40298</v>
+      </c>
+      <c r="C8" s="2">
+        <v>44516</v>
+      </c>
+      <c r="D8">
+        <v>4218</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>00034723920108260590</t>
+          <t>00114382020108260019</t>
         </is>
       </c>
       <c r="B9" s="2">
-        <v>40233</v>
-      </c>
-      <c r="C9">
-        <v>5143</v>
+        <v>40371</v>
+      </c>
+      <c r="C9" s="2">
+        <v>44512</v>
+      </c>
+      <c r="D9">
+        <v>4141</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>00029656520108260077</t>
+          <t>00265355720108260602</t>
         </is>
       </c>
       <c r="B10" s="2">
-        <v>40242</v>
-      </c>
-      <c r="C10">
-        <v>5134</v>
+        <v>40364</v>
+      </c>
+      <c r="C10" s="2">
+        <v>44505</v>
+      </c>
+      <c r="D10">
+        <v>4141</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>00026518820108260152</t>
+          <t>00010682220108260038</t>
         </is>
       </c>
       <c r="B11" s="2">
-        <v>40245</v>
-      </c>
-      <c r="C11">
-        <v>5131</v>
+        <v>40227</v>
+      </c>
+      <c r="C11" s="2">
+        <v>44357</v>
+      </c>
+      <c r="D11">
+        <v>4130</v>
       </c>
     </row>
   </sheetData>
